--- a/start/crypto.xlsx
+++ b/start/crypto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>ETH</t>
   </si>
@@ -127,12 +127,25 @@
   </si>
   <si>
     <t>24/03/21 21:09</t>
+  </si>
+  <si>
+    <t>02/04/21 22:48</t>
+  </si>
+  <si>
+    <t>02/04/21 23:09</t>
+  </si>
+  <si>
+    <t>02/04/21 23:12</t>
+  </si>
+  <si>
+    <t>02/04/21 23:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +337,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -646,23 +673,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="1.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="8.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -738,8 +765,8 @@
       <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
+      <c r="D4" s="3" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" s="18">
         <v>20000</v>
@@ -747,30 +774,30 @@
       <c r="F4" s="18">
         <v>0.1</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="19" t="n">
         <f t="shared" ref="G4:G10" si="0">E4*F4</f>
-        <v>2000</v>
+        <v>2000.0</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="21">
-        <v>46418.21</v>
-      </c>
-      <c r="J4" s="33">
+      <c r="I4" s="21" t="n">
+        <v>50191.43</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f t="shared" ref="J4:J13" si="1">IF(I4&lt;&gt;"",(F4*I4)-G4,"")</f>
-        <v>2641.8209999999999</v>
-      </c>
-      <c r="K4" s="34">
+        <v>3019.143</v>
+      </c>
+      <c r="K4" s="34" t="n">
         <f t="shared" ref="K4:K13" si="2">IF(I4&lt;&gt;"",1/E4*I4-1,"")</f>
-        <v>1.3209105000000001</v>
-      </c>
-      <c r="L4" s="41">
-        <v>-1.5700000000000002E-2</v>
+        <v>1.5095715000000003</v>
+      </c>
+      <c r="L4" s="55" t="n">
+        <v>-0.0040999999999999995</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -780,8 +807,8 @@
       <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
+      <c r="D5" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="E5" s="25">
         <v>1400</v>
@@ -789,30 +816,30 @@
       <c r="F5" s="25">
         <v>0.1</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="28">
-        <v>1387.8</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="I5" s="28" t="n">
+        <v>1788.21</v>
+      </c>
+      <c r="J5" s="22" t="n">
         <f t="shared" si="1"/>
-        <v>-1.2199999999999989</v>
-      </c>
-      <c r="K5" s="23">
+        <v>38.821000000000026</v>
+      </c>
+      <c r="K5" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>-8.7142857142857855E-3</v>
-      </c>
-      <c r="L5" s="42">
-        <v>-4.5999999999999999E-2</v>
+        <v>0.27729285714285723</v>
+      </c>
+      <c r="L5" s="56" t="n">
+        <v>0.0608</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -822,8 +849,8 @@
       <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>77</v>
+      <c r="D6" s="4" t="n">
+        <v>71.0</v>
       </c>
       <c r="E6" s="25">
         <v>1</v>
@@ -831,30 +858,30 @@
       <c r="F6" s="25">
         <v>0.1</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="26" t="n">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="28">
-        <v>1.26</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="I6" s="28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J6" s="22" t="n">
         <f>IF(I6&lt;&gt;"",(F6*I6)-G6,"")</f>
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="K6" s="23">
+        <v>0.068</v>
+      </c>
+      <c r="K6" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="43">
-        <v>-2.3700000000000002E-2</v>
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="L6" s="57" t="n">
+        <v>0.024</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -864,8 +891,8 @@
       <c r="C7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>96</v>
+      <c r="D7" s="4" t="n">
+        <v>99.0</v>
       </c>
       <c r="E7" s="25">
         <v>1</v>
@@ -873,30 +900,30 @@
       <c r="F7" s="25">
         <v>0.1</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="26" t="n">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="28">
-        <v>2.25</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="I7" s="28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J7" s="22" t="n">
         <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="K7" s="23">
+        <v>0.18500000000000003</v>
+      </c>
+      <c r="K7" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="44">
-        <v>-0.12659999999999999</v>
+        <v>1.85</v>
+      </c>
+      <c r="L7" s="58" t="n">
+        <v>-0.0088</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -906,8 +933,8 @@
       <c r="C8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>581</v>
+      <c r="D8" s="4" t="n">
+        <v>666.0</v>
       </c>
       <c r="E8" s="25">
         <v>800</v>
@@ -915,30 +942,30 @@
       <c r="F8" s="25">
         <v>0.1</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="28">
-        <v>551.26</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="I8" s="28" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="J8" s="22" t="n">
         <f t="shared" si="1"/>
-        <v>-24.873999999999995</v>
-      </c>
-      <c r="K8" s="23">
+        <v>-31.159999999999997</v>
+      </c>
+      <c r="K8" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>-0.31092500000000001</v>
-      </c>
-      <c r="L8" s="45">
-        <v>-3.6699999999999997E-2</v>
+        <v>-0.38950000000000007</v>
+      </c>
+      <c r="L8" s="59" t="n">
+        <v>0.0067</v>
       </c>
       <c r="M8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -948,8 +975,8 @@
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
-        <v>86</v>
+      <c r="D9" s="4" t="n">
+        <v>85.0</v>
       </c>
       <c r="E9" s="25">
         <v>1</v>
@@ -957,30 +984,30 @@
       <c r="F9" s="25">
         <v>0.1</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="26" t="n">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="28">
-        <v>0.80210000000000004</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="I9" s="28" t="n">
+        <v>0.9211</v>
+      </c>
+      <c r="J9" s="22" t="n">
         <f t="shared" si="1"/>
-        <v>-1.9790000000000002E-2</v>
-      </c>
-      <c r="K9" s="23">
+        <v>-0.007889999999999994</v>
+      </c>
+      <c r="K9" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>-0.19789999999999996</v>
-      </c>
-      <c r="L9" s="46">
-        <v>-5.6100000000000004E-2</v>
+        <v>-0.07889999999999997</v>
+      </c>
+      <c r="L9" s="60" t="n">
+        <v>0.020099999999999996</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -990,8 +1017,8 @@
       <c r="C10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
-        <v>18</v>
+      <c r="D10" s="4" t="n">
+        <v>24.0</v>
       </c>
       <c r="E10" s="25">
         <v>0.125</v>
@@ -999,30 +1026,30 @@
       <c r="F10" s="25">
         <v>0.1</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="28">
-        <v>0.1933</v>
-      </c>
-      <c r="J10" s="22">
+      <c r="I10" s="28" t="n">
+        <v>0.1937</v>
+      </c>
+      <c r="J10" s="22" t="n">
         <f t="shared" si="1"/>
-        <v>6.8299999999999993E-3</v>
-      </c>
-      <c r="K10" s="23">
+        <v>0.006870000000000001</v>
+      </c>
+      <c r="K10" s="23" t="n">
         <f t="shared" si="2"/>
-        <v>0.5464</v>
-      </c>
-      <c r="L10" s="47">
-        <v>-8.4900000000000003E-2</v>
+        <v>0.5496000000000001</v>
+      </c>
+      <c r="L10" s="61" t="n">
+        <v>0.0334</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
